--- a/ig/sd-jeu-de-valeur-phase-de-lessai/all-profiles.xlsx
+++ b/ig/sd-jeu-de-valeur-phase-de-lessai/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5953" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5952" uniqueCount="590">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T10:17:49+00:00</t>
+    <t>2023-07-28T13:00:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1493,10 +1493,7 @@
     <t>The stage in the progression of a therapy from initial experimental use in humans in clinical trials to post-market evaluation.</t>
   </si>
   <si>
-    <t>Codes for the stage in the progression of a therapy from initial experimental use in humans in clinical trials to post-market evaluation.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/research-study-phase</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/eclaire/ValueSet/eclaire-study-phase-vs</t>
   </si>
   <si>
     <t>ResearchStudy.category</t>
@@ -3438,7 +3435,7 @@
         <v>4</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="191">
@@ -3454,7 +3451,7 @@
         <v>8</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="193">
@@ -3574,7 +3571,7 @@
         <v>36</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
   </sheetData>
@@ -3616,7 +3613,7 @@
     <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="10.53125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="124.69140625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="106.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="71.38671875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="11.08203125" customWidth="true" bestFit="true"/>
@@ -17402,13 +17399,11 @@
         <v>38</v>
       </c>
       <c r="Y132" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="Z132" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="Z132" s="2"/>
+      <c r="AA132" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="AA132" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="AB132" t="s" s="2">
         <v>38</v>
@@ -17446,10 +17441,10 @@
         <v>343</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
@@ -17475,10 +17470,10 @@
         <v>170</v>
       </c>
       <c r="M133" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="N133" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="N133" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="O133" t="s" s="2">
         <v>173</v>
@@ -17510,7 +17505,7 @@
         <v>232</v>
       </c>
       <c r="Z133" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AA133" t="s" s="2">
         <v>38</v>
@@ -17531,7 +17526,7 @@
         <v>38</v>
       </c>
       <c r="AG133" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AH133" t="s" s="2">
         <v>39</v>
@@ -17551,10 +17546,10 @@
         <v>343</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
@@ -17580,10 +17575,10 @@
         <v>170</v>
       </c>
       <c r="M134" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="N134" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="N134" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="O134" t="s" s="2">
         <v>173</v>
@@ -17615,7 +17610,7 @@
         <v>232</v>
       </c>
       <c r="Z134" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AA134" t="s" s="2">
         <v>38</v>
@@ -17636,7 +17631,7 @@
         <v>38</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AH134" t="s" s="2">
         <v>39</v>
@@ -17656,10 +17651,10 @@
         <v>343</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
@@ -17685,10 +17680,10 @@
         <v>170</v>
       </c>
       <c r="M135" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="N135" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="O135" t="s" s="2">
         <v>173</v>
@@ -17720,11 +17715,11 @@
         <v>232</v>
       </c>
       <c r="Z135" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AA135" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="AA135" t="s" s="2">
-        <v>489</v>
-      </c>
       <c r="AB135" t="s" s="2">
         <v>38</v>
       </c>
@@ -17741,7 +17736,7 @@
         <v>38</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AH135" t="s" s="2">
         <v>39</v>
@@ -17761,10 +17756,10 @@
         <v>343</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
@@ -17787,13 +17782,13 @@
         <v>81</v>
       </c>
       <c r="L136" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="M136" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="M136" t="s" s="2">
+      <c r="N136" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="N136" t="s" s="2">
-        <v>493</v>
       </c>
       <c r="O136" s="2"/>
       <c r="P136" s="2"/>
@@ -17844,7 +17839,7 @@
         <v>38</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AH136" t="s" s="2">
         <v>39</v>
@@ -17864,10 +17859,10 @@
         <v>343</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
@@ -17967,10 +17962,10 @@
         <v>343</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
@@ -18072,10 +18067,10 @@
         <v>343</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D139" t="s" s="2">
         <v>333</v>
@@ -18100,10 +18095,10 @@
         <v>38</v>
       </c>
       <c r="L139" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="M139" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="M139" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="N139" t="s" s="2">
         <v>336</v>
@@ -18177,10 +18172,10 @@
         <v>343</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
@@ -18206,13 +18201,13 @@
         <v>45</v>
       </c>
       <c r="M140" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="N140" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="N140" t="s" s="2">
+      <c r="O140" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="O140" t="s" s="2">
-        <v>502</v>
       </c>
       <c r="P140" s="2"/>
       <c r="Q140" t="s" s="2">
@@ -18262,7 +18257,7 @@
         <v>38</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AH140" t="s" s="2">
         <v>39</v>
@@ -18282,10 +18277,10 @@
         <v>343</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
@@ -18311,10 +18306,10 @@
         <v>177</v>
       </c>
       <c r="M141" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="N141" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="N141" t="s" s="2">
-        <v>506</v>
       </c>
       <c r="O141" s="2"/>
       <c r="P141" s="2"/>
@@ -18365,7 +18360,7 @@
         <v>38</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AH141" t="s" s="2">
         <v>39</v>
@@ -18377,7 +18372,7 @@
         <v>42</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="142">
@@ -18385,10 +18380,10 @@
         <v>343</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
@@ -18411,16 +18406,16 @@
         <v>38</v>
       </c>
       <c r="L142" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="M142" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="M142" t="s" s="2">
+      <c r="N142" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="N142" t="s" s="2">
+      <c r="O142" t="s" s="2">
         <v>512</v>
-      </c>
-      <c r="O142" t="s" s="2">
-        <v>513</v>
       </c>
       <c r="P142" s="2"/>
       <c r="Q142" t="s" s="2">
@@ -18470,7 +18465,7 @@
         <v>38</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>39</v>
@@ -18490,10 +18485,10 @@
         <v>343</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
@@ -18519,10 +18514,10 @@
         <v>170</v>
       </c>
       <c r="M143" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="N143" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="N143" t="s" s="2">
-        <v>516</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>173</v>
@@ -18554,7 +18549,7 @@
         <v>232</v>
       </c>
       <c r="Z143" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AA143" t="s" s="2">
         <v>38</v>
@@ -18575,7 +18570,7 @@
         <v>38</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>39</v>
@@ -18595,10 +18590,10 @@
         <v>343</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
@@ -18624,10 +18619,10 @@
         <v>170</v>
       </c>
       <c r="M144" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="N144" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="N144" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="O144" t="s" s="2">
         <v>173</v>
@@ -18659,11 +18654,11 @@
         <v>174</v>
       </c>
       <c r="Z144" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AA144" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="AA144" t="s" s="2">
-        <v>522</v>
-      </c>
       <c r="AB144" t="s" s="2">
         <v>38</v>
       </c>
@@ -18680,7 +18675,7 @@
         <v>38</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AH144" t="s" s="2">
         <v>39</v>
@@ -18700,10 +18695,10 @@
         <v>343</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
@@ -18726,16 +18721,16 @@
         <v>38</v>
       </c>
       <c r="L145" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="M145" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="M145" t="s" s="2">
+      <c r="N145" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="N145" t="s" s="2">
+      <c r="O145" t="s" s="2">
         <v>526</v>
-      </c>
-      <c r="O145" t="s" s="2">
-        <v>527</v>
       </c>
       <c r="P145" s="2"/>
       <c r="Q145" t="s" s="2">
@@ -18785,7 +18780,7 @@
         <v>38</v>
       </c>
       <c r="AG145" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AH145" t="s" s="2">
         <v>39</v>
@@ -18805,14 +18800,14 @@
         <v>343</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F146" s="2"/>
       <c r="G146" t="s" s="2">
@@ -18831,16 +18826,16 @@
         <v>81</v>
       </c>
       <c r="L146" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="M146" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="M146" t="s" s="2">
+      <c r="N146" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="N146" t="s" s="2">
+      <c r="O146" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="O146" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="P146" s="2"/>
       <c r="Q146" t="s" s="2">
@@ -18890,7 +18885,7 @@
         <v>38</v>
       </c>
       <c r="AG146" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AH146" t="s" s="2">
         <v>39</v>
@@ -18910,14 +18905,14 @@
         <v>343</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F147" s="2"/>
       <c r="G147" t="s" s="2">
@@ -18939,10 +18934,10 @@
         <v>216</v>
       </c>
       <c r="M147" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="N147" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="N147" t="s" s="2">
-        <v>537</v>
       </c>
       <c r="O147" t="s" s="2">
         <v>219</v>
@@ -18995,7 +18990,7 @@
         <v>38</v>
       </c>
       <c r="AG147" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AH147" t="s" s="2">
         <v>39</v>
@@ -19015,10 +19010,10 @@
         <v>343</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" t="s" s="2">
@@ -19044,10 +19039,10 @@
         <v>63</v>
       </c>
       <c r="M148" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="N148" t="s" s="2">
         <v>539</v>
-      </c>
-      <c r="N148" t="s" s="2">
-        <v>540</v>
       </c>
       <c r="O148" t="s" s="2">
         <v>268</v>
@@ -19100,7 +19095,7 @@
         <v>38</v>
       </c>
       <c r="AG148" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AH148" t="s" s="2">
         <v>39</v>
@@ -19120,10 +19115,10 @@
         <v>343</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C149" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
@@ -19146,13 +19141,13 @@
         <v>81</v>
       </c>
       <c r="L149" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="M149" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="M149" t="s" s="2">
+      <c r="N149" t="s" s="2">
         <v>543</v>
-      </c>
-      <c r="N149" t="s" s="2">
-        <v>544</v>
       </c>
       <c r="O149" t="s" s="2">
         <v>268</v>
@@ -19205,7 +19200,7 @@
         <v>38</v>
       </c>
       <c r="AG149" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AH149" t="s" s="2">
         <v>39</v>
@@ -19225,10 +19220,10 @@
         <v>343</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
@@ -19254,10 +19249,10 @@
         <v>265</v>
       </c>
       <c r="M150" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="N150" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="N150" t="s" s="2">
-        <v>547</v>
       </c>
       <c r="O150" t="s" s="2">
         <v>268</v>
@@ -19310,7 +19305,7 @@
         <v>38</v>
       </c>
       <c r="AG150" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AH150" t="s" s="2">
         <v>39</v>
@@ -19330,10 +19325,10 @@
         <v>343</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
@@ -19359,10 +19354,10 @@
         <v>170</v>
       </c>
       <c r="M151" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="N151" t="s" s="2">
         <v>549</v>
-      </c>
-      <c r="N151" t="s" s="2">
-        <v>550</v>
       </c>
       <c r="O151" t="s" s="2">
         <v>173</v>
@@ -19394,11 +19389,11 @@
         <v>232</v>
       </c>
       <c r="Z151" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AA151" t="s" s="2">
         <v>551</v>
       </c>
-      <c r="AA151" t="s" s="2">
-        <v>552</v>
-      </c>
       <c r="AB151" t="s" s="2">
         <v>38</v>
       </c>
@@ -19415,7 +19410,7 @@
         <v>38</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>39</v>
@@ -19435,10 +19430,10 @@
         <v>343</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
@@ -19461,16 +19456,16 @@
         <v>38</v>
       </c>
       <c r="L152" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="M152" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="M152" t="s" s="2">
+      <c r="N152" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="N152" t="s" s="2">
+      <c r="O152" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="O152" t="s" s="2">
-        <v>557</v>
       </c>
       <c r="P152" s="2"/>
       <c r="Q152" t="s" s="2">
@@ -19520,7 +19515,7 @@
         <v>38</v>
       </c>
       <c r="AG152" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AH152" t="s" s="2">
         <v>39</v>
@@ -19540,10 +19535,10 @@
         <v>343</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
@@ -19569,10 +19564,10 @@
         <v>236</v>
       </c>
       <c r="M153" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="N153" t="s" s="2">
         <v>559</v>
-      </c>
-      <c r="N153" t="s" s="2">
-        <v>560</v>
       </c>
       <c r="O153" s="2"/>
       <c r="P153" s="2"/>
@@ -19623,7 +19618,7 @@
         <v>38</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AH153" t="s" s="2">
         <v>39</v>
@@ -19643,10 +19638,10 @@
         <v>343</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
@@ -19746,10 +19741,10 @@
         <v>343</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" t="s" s="2">
@@ -19851,10 +19846,10 @@
         <v>343</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
@@ -19958,10 +19953,10 @@
         <v>343</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C157" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
@@ -19987,10 +19982,10 @@
         <v>45</v>
       </c>
       <c r="M157" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="N157" t="s" s="2">
         <v>565</v>
-      </c>
-      <c r="N157" t="s" s="2">
-        <v>566</v>
       </c>
       <c r="O157" t="s" s="2">
         <v>139</v>
@@ -20043,7 +20038,7 @@
         <v>38</v>
       </c>
       <c r="AG157" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AH157" t="s" s="2">
         <v>44</v>
@@ -20063,10 +20058,10 @@
         <v>343</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
@@ -20092,10 +20087,10 @@
         <v>170</v>
       </c>
       <c r="M158" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="N158" t="s" s="2">
         <v>568</v>
-      </c>
-      <c r="N158" t="s" s="2">
-        <v>569</v>
       </c>
       <c r="O158" t="s" s="2">
         <v>173</v>
@@ -20148,7 +20143,7 @@
         <v>38</v>
       </c>
       <c r="AG158" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AH158" t="s" s="2">
         <v>39</v>
@@ -20168,10 +20163,10 @@
         <v>343</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" t="s" s="2">
@@ -20197,10 +20192,10 @@
         <v>45</v>
       </c>
       <c r="M159" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="N159" t="s" s="2">
         <v>571</v>
-      </c>
-      <c r="N159" t="s" s="2">
-        <v>572</v>
       </c>
       <c r="O159" t="s" s="2">
         <v>139</v>
@@ -20253,7 +20248,7 @@
         <v>38</v>
       </c>
       <c r="AG159" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AH159" t="s" s="2">
         <v>39</v>
@@ -20273,10 +20268,10 @@
         <v>343</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" t="s" s="2">
@@ -20302,10 +20297,10 @@
         <v>236</v>
       </c>
       <c r="M160" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="N160" t="s" s="2">
         <v>574</v>
-      </c>
-      <c r="N160" t="s" s="2">
-        <v>575</v>
       </c>
       <c r="O160" s="2"/>
       <c r="P160" s="2"/>
@@ -20356,7 +20351,7 @@
         <v>38</v>
       </c>
       <c r="AG160" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AH160" t="s" s="2">
         <v>39</v>
@@ -20376,10 +20371,10 @@
         <v>343</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" t="s" s="2">
@@ -20479,10 +20474,10 @@
         <v>343</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C162" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
@@ -20584,10 +20579,10 @@
         <v>343</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
@@ -20691,10 +20686,10 @@
         <v>343</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C164" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" t="s" s="2">
@@ -20720,10 +20715,10 @@
         <v>45</v>
       </c>
       <c r="M164" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="N164" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="N164" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="O164" t="s" s="2">
         <v>139</v>
@@ -20776,7 +20771,7 @@
         <v>38</v>
       </c>
       <c r="AG164" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AH164" t="s" s="2">
         <v>39</v>
@@ -20796,10 +20791,10 @@
         <v>343</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C165" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
@@ -20825,10 +20820,10 @@
         <v>170</v>
       </c>
       <c r="M165" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="N165" t="s" s="2">
         <v>583</v>
-      </c>
-      <c r="N165" t="s" s="2">
-        <v>584</v>
       </c>
       <c r="O165" t="s" s="2">
         <v>173</v>
@@ -20860,11 +20855,11 @@
         <v>102</v>
       </c>
       <c r="Z165" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="AA165" t="s" s="2">
         <v>585</v>
       </c>
-      <c r="AA165" t="s" s="2">
-        <v>586</v>
-      </c>
       <c r="AB165" t="s" s="2">
         <v>38</v>
       </c>
@@ -20881,7 +20876,7 @@
         <v>38</v>
       </c>
       <c r="AG165" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AH165" t="s" s="2">
         <v>39</v>
@@ -21253,7 +21248,7 @@
       </c>
       <c r="R169" s="2"/>
       <c r="S169" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="T169" t="s" s="2">
         <v>38</v>
@@ -21341,7 +21336,7 @@
         <v>38</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="M170" t="s" s="2">
         <v>64</v>

--- a/ig/sd-jeu-de-valeur-phase-de-lessai/all-profiles.xlsx
+++ b/ig/sd-jeu-de-valeur-phase-de-lessai/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T13:00:23+00:00</t>
+    <t>2023-07-28T15:15:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
